--- a/Nowcasts/2025Q4/tables/nowcasts_2025Q4_Nr8_Np1_Nj0.xlsx
+++ b/Nowcasts/2025Q4/tables/nowcasts_2025Q4_Nr8_Np1_Nj0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Row</t>
   </si>
@@ -109,6 +109,57 @@
   </si>
   <si>
     <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
+  </si>
+  <si>
+    <t>2025-10-30</t>
+  </si>
+  <si>
+    <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>2025-11-30</t>
+  </si>
+  <si>
+    <t>2025-12-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -189,58 +240,58 @@
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
     <col min="2" max="2" width="12.64453125" customWidth="true"/>
-    <col min="3" max="3" width="13.24609375" customWidth="true"/>
-    <col min="4" max="4" width="14.64453125" customWidth="true"/>
+    <col min="3" max="3" width="15.24609375" customWidth="true"/>
+    <col min="4" max="4" width="13.64453125" customWidth="true"/>
     <col min="5" max="5" width="16.24609375" customWidth="true"/>
     <col min="6" max="6" width="15.77734375" customWidth="true"/>
     <col min="7" max="7" width="14.64453125" customWidth="true"/>
-    <col min="8" max="8" width="16.24609375" customWidth="true"/>
+    <col min="8" max="8" width="15.24609375" customWidth="true"/>
     <col min="9" max="9" width="15.24609375" customWidth="true"/>
-    <col min="10" max="10" width="15.77734375" customWidth="true"/>
-    <col min="11" max="11" width="15.77734375" customWidth="true"/>
+    <col min="10" max="10" width="15.046875" customWidth="true"/>
+    <col min="11" max="11" width="15.64453125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B2" s="0">
-        <v>0.15233123440498739</v>
+        <v>0.22383536890434622</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -272,177 +323,177 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B3" s="0">
-        <v>0.17302454237130999</v>
+        <v>0.22463013722804542</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>0.005212339351357548</v>
+        <v>0.073074208030727617</v>
       </c>
       <c r="E3" s="0">
-        <v>-0.0008016601363116867</v>
+        <v>-0.0054952857848852669</v>
       </c>
       <c r="F3" s="0">
-        <v>0.0037339665242996189</v>
+        <v>-0.059002647403701591</v>
       </c>
       <c r="G3" s="0">
-        <v>0.0091837971282249346</v>
+        <v>0.0018317844944940689</v>
       </c>
       <c r="H3" s="0">
-        <v>-0.00037647173332430598</v>
+        <v>-4.2628527995615463e-05</v>
       </c>
       <c r="I3" s="0">
-        <v>0.0036346305642554109</v>
+        <v>-0.0095984293181695657</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>0.00010670626782108283</v>
+        <v>2.7766833229553312e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B4" s="0">
-        <v>0.39205320207533412</v>
+        <v>0.49566753303157218</v>
       </c>
       <c r="C4" s="0">
-        <v>0.19826674044776549</v>
+        <v>0.15392426568567807</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>-0.00071422333285375318</v>
+        <v>0.0082919516571763885</v>
       </c>
       <c r="F4" s="0">
-        <v>0.00033933266722684043</v>
+        <v>-9.8298683006282526e-05</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>-0.00018291235894558883</v>
+        <v>-0.0091567683477865505</v>
       </c>
       <c r="I4" s="0">
-        <v>0.021335112300379204</v>
+        <v>0.060990010252004054</v>
       </c>
       <c r="J4" s="0">
-        <v>-4.7054157277828607e-06</v>
+        <v>0.061572339969504654</v>
       </c>
       <c r="K4" s="0">
-        <v>-1.0684603820282357e-05</v>
+        <v>-0.0044861047300435719</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B5" s="0">
-        <v>0.44889442907398791</v>
+        <v>0.27595213879319125</v>
       </c>
       <c r="C5" s="0">
         <v>0</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.022990467945073929</v>
+        <v>0.017977045154516501</v>
       </c>
       <c r="E5" s="0">
-        <v>-0.0020892272326306343</v>
+        <v>-0.00045173400724847945</v>
       </c>
       <c r="F5" s="0">
-        <v>0.015873844399275128</v>
+        <v>-0.23816426057331044</v>
       </c>
       <c r="G5" s="0">
-        <v>0.014061118008211745</v>
+        <v>0.018428194427799832</v>
       </c>
       <c r="H5" s="0">
-        <v>-0.00063674840466514961</v>
+        <v>-0.0031487461735808736</v>
       </c>
       <c r="I5" s="0">
-        <v>0.050773069189412788</v>
+        <v>-0.017934997542797027</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>0.0018496389841238248</v>
+        <v>0.0035791044762395474</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B6" s="0">
-        <v>0.27008629432910425</v>
+        <v>0.22296987759374368</v>
       </c>
       <c r="C6" s="0">
-        <v>-0.19917675915317018</v>
+        <v>-0.0065652079930498507</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>-0.00015334768218717136</v>
+        <v>0.0053580724185033927</v>
       </c>
       <c r="F6" s="0">
-        <v>0.0015550940896518488</v>
+        <v>-0.0087553022237459692</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>0.0008959035492487465</v>
+        <v>-0.024019498819331409</v>
       </c>
       <c r="I6" s="0">
-        <v>0.017994441537588668</v>
+        <v>-0.019454390033617919</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>7.6532913984461715e-05</v>
+        <v>0.00045406545179416113</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B7" s="0">
-        <v>0.14556830623406536</v>
+        <v>-0.14616498160800523</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.12196395662283287</v>
+        <v>0.090083757847987056</v>
       </c>
       <c r="E7" s="0">
-        <v>0.015004905864952792</v>
+        <v>-0.0032063733554810068</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.01879512665966087</v>
+        <v>-0.41697277787777232</v>
       </c>
       <c r="G7" s="0">
-        <v>0.0075548707064638969</v>
+        <v>-0.023906846075865525</v>
       </c>
       <c r="H7" s="0">
-        <v>-0.00082775736634260223</v>
+        <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>2.3011065097948381e-05</v>
+        <v>0</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>-0.0055139350827171918</v>
+        <v>-0.015132619740617109</v>
       </c>
     </row>
     <row r="8">
